--- a/docs/StructureDefinition-BRCIAP2Avaliado-1.0.xlsx
+++ b/docs/StructureDefinition-BRCIAP2Avaliado-1.0.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
